--- a/bak_formato vacio.xlsx
+++ b/bak_formato vacio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="318"/>
   </bookViews>
   <sheets>
     <sheet name="egresados" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>carnet</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>direccion de jorshua</t>
+  </si>
+  <si>
+    <t>2009-30781</t>
+  </si>
+  <si>
+    <t>Eynar Josue</t>
+  </si>
+  <si>
+    <t>Lanuza</t>
+  </si>
+  <si>
+    <t>scse.test1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -160,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +194,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -466,7 +484,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="7">
-        <v>34030</v>
+        <v>33672</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -575,6 +593,32 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>34677</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" s="6"/>
@@ -583,8 +627,9 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/bak_formato vacio.xlsx
+++ b/bak_formato vacio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>carnet</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>scse.test1@gmail.com</t>
+  </si>
+  <si>
+    <t>Ingeniería civil</t>
+  </si>
+  <si>
+    <t>asdadsadsasd</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +585,8 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7">
-        <v>33672</v>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -614,7 +620,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
